--- a/Relazioni ZNZ/Aggiornamento20200205.xlsx
+++ b/Relazioni ZNZ/Aggiornamento20200205.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgcd/Desktop/nlp/Progetto/GANTT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\Luca\Università\Magistrale\NLP\Progetto\Relazioni ZNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD16F598-391B-F246-B23A-55947B3FC426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6AFBC536-4EF7-2448-AE2E-7A92BA2041E0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Studente</t>
   </si>
@@ -54,12 +53,33 @@
   </si>
   <si>
     <t>Task03</t>
+  </si>
+  <si>
+    <t>Task04</t>
+  </si>
+  <si>
+    <t>Task05</t>
+  </si>
+  <si>
+    <t>Task06</t>
+  </si>
+  <si>
+    <t>Task07</t>
+  </si>
+  <si>
+    <t>Task08</t>
+  </si>
+  <si>
+    <t>Task09</t>
+  </si>
+  <si>
+    <t>Corridori</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -77,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +113,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -173,6 +205,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -486,43 +536,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AF12AF-1763-6E46-ACA8-E2DD074C38C0}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="16.25" customWidth="1"/>
+    <col min="16" max="16" width="19.25" customWidth="1"/>
+    <col min="17" max="17" width="6.25" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="19.125" customWidth="1"/>
+    <col min="20" max="20" width="6.25" customWidth="1"/>
+    <col min="21" max="21" width="16.625" customWidth="1"/>
+    <col min="22" max="22" width="19.125" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="24" max="24" width="17.125" customWidth="1"/>
+    <col min="25" max="25" width="19.125" customWidth="1"/>
+    <col min="26" max="26" width="6.875" customWidth="1"/>
+    <col min="27" max="27" width="16.125" customWidth="1"/>
+    <col min="28" max="28" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="7"/>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="19"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="9"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="9"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -553,20 +654,142 @@
       <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="13">
+        <v>43853</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="13">
+        <v>43853</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="13">
+        <v>43858</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+      <c r="M3" s="13">
+        <v>43862</v>
+      </c>
+      <c r="N3" s="1">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100</v>
+      </c>
+      <c r="P3" s="13">
+        <v>43865</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
+        <v>100</v>
+      </c>
+      <c r="S3" s="13">
+        <v>43867</v>
+      </c>
+      <c r="T3" s="1">
+        <v>11</v>
+      </c>
+      <c r="U3" s="1">
+        <v>100</v>
+      </c>
+      <c r="V3" s="13">
+        <v>43869</v>
+      </c>
+      <c r="W3" s="1">
+        <v>14</v>
+      </c>
+      <c r="X3" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>43869</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -577,8 +800,26 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -589,8 +830,26 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -601,8 +860,26 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -613,8 +890,26 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -625,8 +920,26 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -637,8 +950,26 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -649,8 +980,26 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -661,8 +1010,26 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -673,8 +1040,26 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -685,8 +1070,26 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -697,8 +1100,29 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Relazioni ZNZ/Aggiornamento20200205.xlsx
+++ b/Relazioni ZNZ/Aggiornamento20200205.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\Luca\Università\Magistrale\NLP\Progetto\Relazioni ZNZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\progettoNLP\Relazioni ZNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDDA03-BDB0-4677-9F6F-82A8214768B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Studente</t>
   </si>
@@ -74,12 +67,18 @@
   </si>
   <si>
     <t>Corridori</t>
+  </si>
+  <si>
+    <t>Tamiano</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -536,11 +535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -790,25 +789,63 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="13">
+        <v>43853</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="13">
+        <v>43853</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="13">
+        <v>43859</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4" s="13">
+        <v>43865</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1">
+        <v>100</v>
+      </c>
+      <c r="P4" s="13">
+        <v>43865</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>7</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>

--- a/Relazioni ZNZ/Aggiornamento20200205.xlsx
+++ b/Relazioni ZNZ/Aggiornamento20200205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\progettoNLP\Relazioni ZNZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDDA03-BDB0-4677-9F6F-82A8214768B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40971819-DF01-4E42-B03A-4C391A23B3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Studente</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>//</t>
   </si>
 </sst>
 </file>
@@ -538,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -857,25 +863,63 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43853</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43853</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" s="13">
+        <v>43859</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="M5" s="13">
+        <v>43865</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>100</v>
+      </c>
+      <c r="P5" s="13">
+        <v>43865</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>

--- a/Relazioni ZNZ/Aggiornamento20200205.xlsx
+++ b/Relazioni ZNZ/Aggiornamento20200205.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t xml:space="preserve">Task01</t>
   </si>
@@ -79,23 +79,18 @@
     <t xml:space="preserve">Tafani</t>
   </si>
   <si>
-    <t xml:space="preserve">23-Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-Jan</t>
+    <t xml:space="preserve">Arena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD\-MMM"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -211,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +260,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,7 +347,7 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,11 +355,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.25"/>
@@ -368,14 +367,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.87"/>
@@ -744,8 +743,8 @@
       <c r="C6" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>19</v>
+      <c r="D6" s="13" t="n">
+        <v>43853</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>3</v>
@@ -753,8 +752,8 @@
       <c r="F6" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
+      <c r="G6" s="13" t="n">
+        <v>43853</v>
       </c>
       <c r="H6" s="11" t="n">
         <v>4</v>
@@ -762,8 +761,8 @@
       <c r="I6" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>20</v>
+      <c r="J6" s="14" t="n">
+        <v>43857</v>
       </c>
       <c r="K6" s="11" t="n">
         <v>2</v>
@@ -771,8 +770,8 @@
       <c r="L6" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>21</v>
+      <c r="M6" s="14" t="n">
+        <v>43854</v>
       </c>
       <c r="N6" s="11" t="n">
         <v>7</v>
@@ -797,19 +796,45 @@
       <c r="AB6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>43853</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>43853</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>43857</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" s="13" t="n">
+        <v>43854</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
